--- a/SCLPsolver/results_MCQN_new1.xlsx
+++ b/SCLPsolver/results_MCQN_new1.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCLP-python\SCLPsolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1AC2881-42FB-4DE5-8BC8-098E93262B66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0320C9-0E4B-4943-B009-CA7231D029B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="3" r:id="rId1"/>
-    <sheet name="calculation" sheetId="2" r:id="rId2"/>
-    <sheet name="results_MCQN_new1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId2"/>
+    <sheet name="calculation" sheetId="2" r:id="rId3"/>
+    <sheet name="results_MCQN_new1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2B2AAA1C-E43B-427F-8E13-E62B68FC9557}</author>
-    <author>tc={11850527-1419-442F-B1BB-7CCF1D89F203}</author>
+    <author>tc={F655A651-9EA1-47E6-9A54-EDF90EA670B0}</author>
   </authors>
   <commentList>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{F655A651-9EA1-47E6-9A54-EDF90EA670B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -36,7 +44,26 @@
     with extreme result</t>
       </text>
     </comment>
-    <comment ref="L6" authorId="1" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2B2AAA1C-E43B-427F-8E13-E62B68FC9557}</author>
+    <author>tc={11850527-1419-442F-B1BB-7CCF1D89F203}</author>
+  </authors>
+  <commentList>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    with extreme result</t>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="121">
   <si>
     <t>file</t>
   </si>
@@ -417,7 +444,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,12 +932,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,6 +998,3315 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.311814422058792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2440609047226183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9464501456046507E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>1.2805993700239619E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>S40B400T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.007699309355312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89325346841982844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3760827022752897E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>8.5196245962663346E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>S60B600T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.204370318742708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91340162914312883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6443853307441806E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>9.3338227103405193E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>S60B600T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91.414556808349175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6515891931646323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64331332991454127</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>2.5490788981943142E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>S80B800T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.631462674456021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0167990163881773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9014114730645297E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>S40B400T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.140231840815119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.403909522858612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61955747862857946</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>2.315348132007046E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>S80B800T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120.50900577816719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.410848629238792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84826548646426103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>S100B1000T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.389381285096736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9219041009517952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6428952892914722E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>S100B1000T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.703804505744102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4153237072892502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70081370548545441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7511-4DB2-B8FF-5F89378A8D59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10779094527440528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0267814162076501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.49448890828825</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>212.83443622121302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>S40B400T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.7097877567127141E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.395460417687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.770094701779001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>448.42289403467822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>S60B600T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3623687614909399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2423745016225234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.99197218888969</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>946.58518812489206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>S60B600T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0983751252422558E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.134700704054004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.503212060721651</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>278.17512106176673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>S80B800T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2493308634134671E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2171088047968612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.967211919834032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>S40B400T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4893891639467034E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3655907866341557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.083737674164535</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>270.12180642488539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>S80B800T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2763895926878933E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.119334198301098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.151523773462714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>S100B1000T100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6948932512398497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0512034441370912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.809254883232564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>S100B1000T1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2952531393225649E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99242594183060606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.220124400169126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8C0D-4E42-A769-0EA04B3944F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1317CC72-5112-4CAE-A8D2-DF389747813C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91FF377-955F-4C59-8546-528F490D74DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,54 +4612,503 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K6" dT="2020-05-17T06:00:53.56" personId="{05B91523-F69F-49FF-B8FD-D67F3848FFD9}" id="{2B2AAA1C-E43B-427F-8E13-E62B68FC9557}">
+  <threadedComment ref="P6" dT="2020-05-17T06:00:53.56" personId="{05B91523-F69F-49FF-B8FD-D67F3848FFD9}" id="{F655A651-9EA1-47E6-9A54-EDF90EA670B0}">
     <text>with extreme result</text>
   </threadedComment>
-  <threadedComment ref="L6" dT="2020-05-17T06:01:22.89" personId="{05B91523-F69F-49FF-B8FD-D67F3848FFD9}" id="{11850527-1419-442F-B1BB-7CCF1D89F203}">
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N6" dT="2020-05-17T06:00:53.56" personId="{05B91523-F69F-49FF-B8FD-D67F3848FFD9}" id="{2B2AAA1C-E43B-427F-8E13-E62B68FC9557}">
+    <text>with extreme result</text>
+  </threadedComment>
+  <threadedComment ref="O6" dT="2020-05-17T06:01:22.89" personId="{05B91523-F69F-49FF-B8FD-D67F3848FFD9}" id="{11850527-1419-442F-B1BB-7CCF1D89F203}">
     <text>without extreme result</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70281A2-F35B-4347-9D8F-F9F20DB31631}">
+  <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16.311814422058792</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2440609047226183</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.9464501456046507E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.2805993700239619E-3</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.10779094527440528</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.0267814162076501</v>
+      </c>
+      <c r="O3" s="3">
+        <v>12.49448890828825</v>
+      </c>
+      <c r="P3" s="5">
+        <v>212.83443622121302</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12.007699309355312</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.89325346841982844</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.3760827022752897E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8.5196245962663346E-4</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3">
+        <v>8.7097877567127141E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.395460417687</v>
+      </c>
+      <c r="O4" s="3">
+        <v>18.770094701779001</v>
+      </c>
+      <c r="P4" s="5">
+        <v>448.42289403467822</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>89.140231840815119</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.403909522858612</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.61955747862857946</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.315348132007046E-2</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>8.4893891639467034E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.3655907866341557</v>
+      </c>
+      <c r="O5" s="3">
+        <v>16.083737674164535</v>
+      </c>
+      <c r="P5" s="5">
+        <v>270.12180642488539</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12.204370318742708</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.91340162914312883</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.6443853307441806E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.3338227103405193E-4</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>600</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6.3623687614909399E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.2423745016225234</v>
+      </c>
+      <c r="O6" s="3">
+        <v>19.99197218888969</v>
+      </c>
+      <c r="P6" s="5">
+        <v>946.58518812489206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>91.414556808349175</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8.6515891931646323</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.64331332991454127</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.5490788981943142E-2</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>600</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6.0983751252422558E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.134700704054004</v>
+      </c>
+      <c r="O7" s="3">
+        <v>14.503212060721651</v>
+      </c>
+      <c r="P7" s="5">
+        <v>278.17512106176673</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13.631462674456021</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0167990163881773</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.9014114730645297E-2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>800</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5.2493308634134671E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.2171088047968612</v>
+      </c>
+      <c r="O8" s="3">
+        <v>23.967211919834032</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>120.50900577816719</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11.410848629238792</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.84826548646426103</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>800</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5.2763895926878933E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.119334198301098</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14.151523773462714</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12.389381285096736</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.9219041009517952</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.6428952892914722E-2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4.6948932512398497E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.0512034441370912</v>
+      </c>
+      <c r="O10" s="3">
+        <v>15.809254883232564</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>99.703804505744102</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.4153237072892502</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.70081370548545441</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4.2952531393225649E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.99242594183060606</v>
+      </c>
+      <c r="O11" s="3">
+        <v>13.220124400169126</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
         <v>10</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>100</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
         <v>1000</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1326,31 +5119,40 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>119</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>119</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1360,32 +5162,41 @@
       <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>0.98814046382903808</v>
+      </c>
+      <c r="E3" s="6">
+        <v>663.1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="G3" s="3">
         <v>16.311814422058792</v>
       </c>
-      <c r="E3">
+      <c r="H3" s="3">
         <v>0.10779094527440528</v>
       </c>
-      <c r="F3">
+      <c r="I3" s="3">
         <v>1.2440609047226183</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="3">
         <v>1.0267814162076501</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="3">
         <v>4.9464501456046507E-2</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="3">
         <v>12.49448890828825</v>
       </c>
-      <c r="J3">
+      <c r="M3" s="4">
         <v>1.2805993700239619E-3</v>
       </c>
-      <c r="K3">
+      <c r="N3" s="5">
         <v>212.83443622121302</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1395,32 +5206,41 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>4.816883254051203</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1886.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>534.6</v>
+      </c>
+      <c r="G4" s="3">
         <v>12.007699309355312</v>
       </c>
-      <c r="E4">
+      <c r="H4" s="3">
         <v>8.7097877567127141E-2</v>
       </c>
-      <c r="F4">
+      <c r="I4" s="3">
         <v>0.89325346841982844</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="3">
         <v>1.395460417687</v>
       </c>
-      <c r="H4">
+      <c r="K4" s="3">
         <v>3.3760827022752897E-2</v>
       </c>
-      <c r="I4">
+      <c r="L4" s="3">
         <v>18.770094701779001</v>
       </c>
-      <c r="J4">
+      <c r="M4" s="4">
         <v>8.5196245962663346E-4</v>
       </c>
-      <c r="K4">
+      <c r="N4" s="5">
         <v>448.42289403467822</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1430,32 +5250,41 @@
       <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
+        <v>5.0255365371456548</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1890.1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>537.70000000000005</v>
+      </c>
+      <c r="G5" s="3">
         <v>89.140231840815119</v>
       </c>
-      <c r="E5">
+      <c r="H5" s="3">
         <v>8.4893891639467034E-2</v>
       </c>
-      <c r="F5">
+      <c r="I5" s="3">
         <v>8.403909522858612</v>
       </c>
-      <c r="G5">
+      <c r="J5" s="3">
         <v>1.3655907866341557</v>
       </c>
-      <c r="H5">
+      <c r="K5" s="3">
         <v>0.61955747862857946</v>
       </c>
-      <c r="I5">
+      <c r="L5" s="3">
         <v>16.083737674164535</v>
       </c>
-      <c r="J5">
+      <c r="M5" s="4">
         <v>2.315348132007046E-2</v>
       </c>
-      <c r="K5">
+      <c r="N5" s="5">
         <v>270.12180642488539</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1465,35 +5294,44 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
+        <v>17.097893548031539</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3899.1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>814.7</v>
+      </c>
+      <c r="G6" s="3">
         <v>12.204370318742708</v>
       </c>
-      <c r="E6">
+      <c r="H6" s="3">
         <v>6.3623687614909399E-2</v>
       </c>
-      <c r="F6">
+      <c r="I6" s="3">
         <v>0.91340162914312883</v>
       </c>
-      <c r="G6">
+      <c r="J6" s="3">
         <v>1.2423745016225234</v>
       </c>
-      <c r="H6">
+      <c r="K6" s="3">
         <v>3.6443853307441806E-2</v>
       </c>
-      <c r="I6">
+      <c r="L6" s="3">
         <v>19.99197218888969</v>
       </c>
-      <c r="J6">
+      <c r="M6" s="4">
         <v>9.3338227103405193E-4</v>
       </c>
-      <c r="K6">
+      <c r="N6" s="5">
         <v>946.58518812489206</v>
       </c>
-      <c r="L6">
+      <c r="O6" s="3">
         <v>484.46349305642951</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1503,32 +5341,41 @@
       <c r="C7">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>17.998156309127769</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3905</v>
+      </c>
+      <c r="F7" s="6">
+        <v>819.7</v>
+      </c>
+      <c r="G7" s="3">
         <v>91.414556808349175</v>
       </c>
-      <c r="E7">
+      <c r="H7" s="3">
         <v>6.0983751252422558E-2</v>
       </c>
-      <c r="F7">
+      <c r="I7" s="3">
         <v>8.6515891931646323</v>
       </c>
-      <c r="G7">
+      <c r="J7" s="3">
         <v>1.134700704054004</v>
       </c>
-      <c r="H7">
+      <c r="K7" s="3">
         <v>0.64331332991454127</v>
       </c>
-      <c r="I7">
+      <c r="L7" s="3">
         <v>14.503212060721651</v>
       </c>
-      <c r="J7">
+      <c r="M7" s="4">
         <v>2.5490788981943142E-2</v>
       </c>
-      <c r="K7">
+      <c r="N7" s="5">
         <v>278.17512106176673</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
@@ -1538,26 +5385,37 @@
       <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
+        <v>41.655198002980647</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6424</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1079.5999999999999</v>
+      </c>
+      <c r="G8" s="3">
         <v>13.631462674456021</v>
       </c>
-      <c r="E8">
+      <c r="H8" s="3">
         <v>5.2493308634134671E-2</v>
       </c>
-      <c r="F8">
+      <c r="I8" s="3">
         <v>1.0167990163881773</v>
       </c>
-      <c r="G8">
+      <c r="J8" s="3">
         <v>1.2171088047968612</v>
       </c>
-      <c r="H8">
+      <c r="K8" s="3">
         <v>3.9014114730645297E-2</v>
       </c>
-      <c r="I8">
+      <c r="L8" s="3">
         <v>23.967211919834032</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1567,26 +5425,37 @@
       <c r="C9">
         <v>1000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>42.342856573580377</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6430.8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1085.4000000000001</v>
+      </c>
+      <c r="G9" s="3">
         <v>120.50900577816719</v>
       </c>
-      <c r="E9">
+      <c r="H9" s="3">
         <v>5.2763895926878933E-2</v>
       </c>
-      <c r="F9">
+      <c r="I9" s="3">
         <v>11.410848629238792</v>
       </c>
-      <c r="G9">
+      <c r="J9" s="3">
         <v>1.119334198301098</v>
       </c>
-      <c r="H9">
+      <c r="K9" s="3">
         <v>0.84826548646426103</v>
       </c>
-      <c r="I9">
+      <c r="L9" s="3">
         <v>14.151523773462714</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1596,26 +5465,37 @@
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>91.808981398632625</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9465.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1355.6</v>
+      </c>
+      <c r="G10" s="3">
         <v>12.389381285096736</v>
       </c>
-      <c r="E10">
+      <c r="H10" s="3">
         <v>4.6948932512398497E-2</v>
       </c>
-      <c r="F10">
+      <c r="I10" s="3">
         <v>0.9219041009517952</v>
       </c>
-      <c r="G10">
+      <c r="J10" s="3">
         <v>1.0512034441370912</v>
       </c>
-      <c r="H10">
+      <c r="K10" s="3">
         <v>3.6428952892914722E-2</v>
       </c>
-      <c r="I10">
+      <c r="L10" s="3">
         <v>15.809254883232564</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1625,43 +5505,55 @@
       <c r="C11">
         <v>1000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>93.481225154590987</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9477.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1365.2</v>
+      </c>
+      <c r="G11" s="3">
         <v>99.703804505744102</v>
       </c>
-      <c r="E11">
+      <c r="H11" s="3">
         <v>4.2952531393225649E-2</v>
       </c>
-      <c r="F11">
+      <c r="I11" s="3">
         <v>9.4153237072892502</v>
       </c>
-      <c r="G11">
+      <c r="J11" s="3">
         <v>0.99242594183060606</v>
       </c>
-      <c r="H11">
+      <c r="K11" s="3">
         <v>0.70081370548545441</v>
       </c>
-      <c r="I11">
+      <c r="L11" s="3">
         <v>13.220124400169126</v>
       </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV100"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,6 +6480,10 @@
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.98814046382903808</v>
+      </c>
       <c r="F12">
         <f>AVERAGE(F2:F11)</f>
         <v>663.1</v>
@@ -3471,6 +7367,18 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>AVERAGE(E13:E22)</f>
+        <v>4.816883254051203</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F13:F22)</f>
+        <v>1886.5</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G13:G22)</f>
+        <v>534.6</v>
+      </c>
       <c r="M23">
         <f t="shared" ref="M23:N23" si="7">AVERAGE(M13:M22)</f>
         <v>12.007699309355312</v>
@@ -4346,6 +8254,18 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>AVERAGE(E24:E33)</f>
+        <v>17.097893548031539</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F24:F33)</f>
+        <v>3899.1</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G24:G33)</f>
+        <v>814.7</v>
+      </c>
       <c r="M34">
         <f t="shared" ref="M34:N34" si="11">AVERAGE(M24:M33)</f>
         <v>12.204370318742708</v>
@@ -5094,6 +9014,18 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>AVERAGE(E35:E44)</f>
+        <v>41.655198002980647</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(F35:F44)</f>
+        <v>6424</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(G35:G44)</f>
+        <v>1079.5999999999999</v>
+      </c>
       <c r="M45">
         <f t="shared" ref="M45:N45" si="15">AVERAGE(M35:M44)</f>
         <v>13.631462674456021</v>
@@ -5830,6 +9762,18 @@
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f>AVERAGE(E46:E55)</f>
+        <v>91.808981398632625</v>
+      </c>
+      <c r="F56">
+        <f>AVERAGE(F46:F55)</f>
+        <v>9465.5</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(G46:G55)</f>
+        <v>1355.6</v>
+      </c>
       <c r="M56">
         <f t="shared" ref="M56:N56" si="18">AVERAGE(M46:M55)</f>
         <v>12.389381285096736</v>
@@ -6697,6 +10641,18 @@
       </c>
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f>AVERAGE(E57:E66)</f>
+        <v>5.0255365371456548</v>
+      </c>
+      <c r="F67">
+        <f>AVERAGE(F57:F66)</f>
+        <v>1890.1</v>
+      </c>
+      <c r="G67">
+        <f>AVERAGE(G57:G66)</f>
+        <v>537.70000000000005</v>
+      </c>
       <c r="M67">
         <f t="shared" ref="M67:N67" si="22">AVERAGE(M57:M66)</f>
         <v>89.140231840815119</v>
@@ -6771,7 +10727,7 @@
         <v>7.6285730796084597</v>
       </c>
       <c r="N68">
-        <f>L68/E68</f>
+        <f t="shared" ref="N68:N77" si="26">L68/E68</f>
         <v>9.2006840577629728E-2</v>
       </c>
       <c r="O68">
@@ -6784,7 +10740,7 @@
         <v>0.70993889140752198</v>
       </c>
       <c r="R68">
-        <f>P68/$E68</f>
+        <f t="shared" ref="R68:R77" si="27">P68/$E68</f>
         <v>1.6005924523129322</v>
       </c>
       <c r="S68">
@@ -6797,7 +10753,7 @@
         <v>5.37874672254137E-2</v>
       </c>
       <c r="V68">
-        <f>T68/$E68</f>
+        <f t="shared" ref="V68:V77" si="28">T68/$E68</f>
         <v>23.313058985519312</v>
       </c>
       <c r="W68">
@@ -6810,7 +10766,7 @@
         <v>2.1680922748605002E-3</v>
       </c>
       <c r="Z68">
-        <f>X68/$E68</f>
+        <f t="shared" ref="Z68:Z77" si="29">X68/$E68</f>
         <v>467.68815861771952</v>
       </c>
       <c r="AV68" s="1"/>
@@ -6856,7 +10812,7 @@
         <v>210.030607435891</v>
       </c>
       <c r="N69">
-        <f>L69/E69</f>
+        <f t="shared" si="26"/>
         <v>6.1594133481990429E-2</v>
       </c>
       <c r="O69">
@@ -6869,7 +10825,7 @@
         <v>20.113990591280501</v>
       </c>
       <c r="R69">
-        <f>P69/$E69</f>
+        <f t="shared" si="27"/>
         <v>0.95183474840757909</v>
       </c>
       <c r="S69">
@@ -6882,7 +10838,7 @@
         <v>1.53761971193348</v>
       </c>
       <c r="V69">
-        <f>T69/$E69</f>
+        <f t="shared" si="28"/>
         <v>11.460070507758752</v>
       </c>
       <c r="W69">
@@ -6895,7 +10851,7 @@
         <v>5.9449306483344899E-2</v>
       </c>
       <c r="Z69">
-        <f>X69/$E69</f>
+        <f t="shared" si="29"/>
         <v>222.15459583991262</v>
       </c>
     </row>
@@ -6940,7 +10896,7 @@
         <v>10.285483875296</v>
       </c>
       <c r="N70">
-        <f>L70/E70</f>
+        <f t="shared" si="26"/>
         <v>7.1051662722152673E-2</v>
       </c>
       <c r="O70">
@@ -6953,7 +10909,7 @@
         <v>0.96821114881645798</v>
       </c>
       <c r="R70">
-        <f>P70/$E70</f>
+        <f t="shared" si="27"/>
         <v>1.3329739708167629</v>
       </c>
       <c r="S70">
@@ -6966,7 +10922,7 @@
         <v>7.2336637944588306E-2</v>
       </c>
       <c r="V70">
-        <f>T70/$E70</f>
+        <f t="shared" si="28"/>
         <v>17.509442505164767</v>
       </c>
       <c r="W70">
@@ -6979,7 +10935,7 @@
         <v>2.98532539676374E-3</v>
       </c>
       <c r="Z70">
-        <f>X70/$E70</f>
+        <f t="shared" si="29"/>
         <v>279.04381780879845</v>
       </c>
     </row>
@@ -7024,7 +10980,7 @@
         <v>140.44692806741401</v>
       </c>
       <c r="N71">
-        <f>L71/E71</f>
+        <f t="shared" si="26"/>
         <v>3.6589587086994134E-2</v>
       </c>
       <c r="O71">
@@ -7037,7 +10993,7 @@
         <v>13.195570568957001</v>
       </c>
       <c r="R71">
-        <f>P71/$E71</f>
+        <f t="shared" si="27"/>
         <v>0.72741532554934385</v>
       </c>
       <c r="S71">
@@ -7050,7 +11006,7 @@
         <v>0.96295893462917004</v>
       </c>
       <c r="V71">
-        <f>T71/$E71</f>
+        <f t="shared" si="28"/>
         <v>8.911377714443395</v>
       </c>
       <c r="W71">
@@ -7063,7 +11019,7 @@
         <v>3.8964515803097198E-2</v>
       </c>
       <c r="Z71">
-        <f>X71/$E71</f>
+        <f t="shared" si="29"/>
         <v>135.72902795237593</v>
       </c>
     </row>
@@ -7108,7 +11064,7 @@
         <v>119.808411589114</v>
       </c>
       <c r="N72">
-        <f>L72/E72</f>
+        <f t="shared" si="26"/>
         <v>5.8307559686783146E-2</v>
       </c>
       <c r="O72">
@@ -7121,7 +11077,7 @@
         <v>11.265703314542399</v>
       </c>
       <c r="R72">
-        <f>P72/$E72</f>
+        <f t="shared" si="27"/>
         <v>1.1435783057611935</v>
       </c>
       <c r="S72">
@@ -7134,7 +11090,7 @@
         <v>0.86258301671358695</v>
       </c>
       <c r="V72">
-        <f>T72/$E72</f>
+        <f t="shared" si="28"/>
         <v>14.180409021684577</v>
       </c>
       <c r="W72">
@@ -7147,7 +11103,7 @@
         <v>3.60344476044605E-2</v>
       </c>
       <c r="Z72">
-        <f>X72/$E72</f>
+        <f t="shared" si="29"/>
         <v>226.07618453843062</v>
       </c>
     </row>
@@ -7192,7 +11148,7 @@
         <v>41.8919363434633</v>
       </c>
       <c r="N73">
-        <f>L73/E73</f>
+        <f t="shared" si="26"/>
         <v>6.4160516536531251E-2</v>
       </c>
       <c r="O73">
@@ -7205,7 +11161,7 @@
         <v>4.0244853473730204</v>
       </c>
       <c r="R73">
-        <f>P73/$E73</f>
+        <f t="shared" si="27"/>
         <v>1.2147863373516101</v>
       </c>
       <c r="S73">
@@ -7218,7 +11174,7 @@
         <v>0.31153442349124799</v>
       </c>
       <c r="V73">
-        <f>T73/$E73</f>
+        <f t="shared" si="28"/>
         <v>15.645856901929509</v>
       </c>
       <c r="W73">
@@ -7231,7 +11187,7 @@
         <v>1.2428478504407099E-2</v>
       </c>
       <c r="Z73">
-        <f>X73/$E73</f>
+        <f t="shared" si="29"/>
         <v>263.97406112741805</v>
       </c>
     </row>
@@ -7276,7 +11232,7 @@
         <v>163.38272710287799</v>
       </c>
       <c r="N74">
-        <f>L74/E74</f>
+        <f t="shared" si="26"/>
         <v>4.6291336389531035E-2</v>
       </c>
       <c r="O74">
@@ -7289,7 +11245,7 @@
         <v>15.4382727102878</v>
       </c>
       <c r="R74">
-        <f>P74/$E74</f>
+        <f t="shared" si="27"/>
         <v>0.88255777247378164</v>
       </c>
       <c r="S74">
@@ -7302,7 +11258,7 @@
         <v>1.09849180540379</v>
       </c>
       <c r="V74">
-        <f>T74/$E74</f>
+        <f t="shared" si="28"/>
         <v>10.695890580824699</v>
       </c>
       <c r="W74">
@@ -7315,7 +11271,7 @@
         <v>4.2995207567695599E-2</v>
       </c>
       <c r="Z74">
-        <f>X74/$E74</f>
+        <f t="shared" si="29"/>
         <v>230.9045897119276</v>
       </c>
     </row>
@@ -7360,7 +11316,7 @@
         <v>56.960516946228097</v>
       </c>
       <c r="N75">
-        <f>L75/E75</f>
+        <f t="shared" si="26"/>
         <v>5.9896618173161512E-2</v>
       </c>
       <c r="O75">
@@ -7373,7 +11329,7 @@
         <v>5.28140631734757</v>
       </c>
       <c r="R75">
-        <f>P75/$E75</f>
+        <f t="shared" si="27"/>
         <v>1.1874496289064851</v>
       </c>
       <c r="S75">
@@ -7386,7 +11342,7 @@
         <v>0.38664139685271198</v>
       </c>
       <c r="V75">
-        <f>T75/$E75</f>
+        <f t="shared" si="28"/>
         <v>14.641457064673071</v>
       </c>
       <c r="W75">
@@ -7399,7 +11355,7 @@
         <v>1.5692253724738901E-2</v>
       </c>
       <c r="Z75">
-        <f>X75/$E75</f>
+        <f t="shared" si="29"/>
         <v>249.80589111393815</v>
       </c>
     </row>
@@ -7444,7 +11400,7 @@
         <v>15.9646011581431</v>
       </c>
       <c r="N76">
-        <f>L76/E76</f>
+        <f t="shared" si="26"/>
         <v>6.3343888021643785E-2</v>
       </c>
       <c r="O76">
@@ -7457,7 +11413,7 @@
         <v>1.4923841420403501</v>
       </c>
       <c r="R76">
-        <f>P76/$E76</f>
+        <f t="shared" si="27"/>
         <v>1.2182723215631479</v>
       </c>
       <c r="S76">
@@ -7470,7 +11426,7 @@
         <v>0.11424536095285399</v>
       </c>
       <c r="V76">
-        <f>T76/$E76</f>
+        <f t="shared" si="28"/>
         <v>15.415707772399543</v>
       </c>
       <c r="W76">
@@ -7483,7 +11439,7 @@
         <v>4.72277638942989E-3</v>
       </c>
       <c r="Z76">
-        <f>X76/$E76</f>
+        <f t="shared" si="29"/>
         <v>337.28874270939497</v>
       </c>
     </row>
@@ -7528,7 +11484,7 @@
         <v>147.745782485456</v>
       </c>
       <c r="N77">
-        <f>L77/E77</f>
+        <f t="shared" si="26"/>
         <v>5.6595369847807914E-2</v>
       </c>
       <c r="O77">
@@ -7541,7 +11497,7 @@
         <v>14.025928899593699</v>
       </c>
       <c r="R77">
-        <f>P77/$E77</f>
+        <f t="shared" si="27"/>
         <v>1.0875461773972042</v>
       </c>
       <c r="S77">
@@ -7554,7 +11510,7 @@
         <v>1.03293454399857</v>
       </c>
       <c r="V77">
-        <f>T77/$E77</f>
+        <f t="shared" si="28"/>
         <v>13.258849552818882</v>
       </c>
       <c r="W77">
@@ -7567,41 +11523,53 @@
         <v>3.94674860706331E-2</v>
       </c>
       <c r="Z77">
-        <f>X77/$E77</f>
+        <f t="shared" si="29"/>
         <v>369.08614119775126</v>
       </c>
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f>AVERAGE(E68:E77)</f>
+        <v>17.998156309127769</v>
+      </c>
+      <c r="F78">
+        <f>AVERAGE(F68:F77)</f>
+        <v>3905</v>
+      </c>
+      <c r="G78">
+        <f>AVERAGE(G68:G77)</f>
+        <v>819.7</v>
+      </c>
       <c r="M78">
-        <f t="shared" ref="M78:N78" si="26">AVERAGE(M68:M77)</f>
+        <f t="shared" ref="M78:N78" si="30">AVERAGE(M68:M77)</f>
         <v>91.414556808349175</v>
       </c>
       <c r="N78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6.0983751252422558E-2</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78:R78" si="27">AVERAGE(Q68:Q77)</f>
+        <f t="shared" ref="Q78:R78" si="31">AVERAGE(Q68:Q77)</f>
         <v>8.6515891931646323</v>
       </c>
       <c r="R78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.134700704054004</v>
       </c>
       <c r="U78">
-        <f t="shared" ref="U78:V78" si="28">AVERAGE(U68:U77)</f>
+        <f t="shared" ref="U78:V78" si="32">AVERAGE(U68:U77)</f>
         <v>0.64331332991454127</v>
       </c>
       <c r="V78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>14.503212060721651</v>
       </c>
       <c r="Y78">
-        <f t="shared" ref="Y78:Z78" si="29">AVERAGE(Y68:Y77)</f>
+        <f t="shared" ref="Y78:Z78" si="33">AVERAGE(Y68:Y77)</f>
         <v>2.5490788981943142E-2</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>278.17512106176673</v>
       </c>
     </row>
@@ -7943,7 +11911,7 @@
         <v>13.883137175782</v>
       </c>
       <c r="R83">
-        <f t="shared" ref="R83:R99" si="30">P83/$E83</f>
+        <f t="shared" ref="R83:R99" si="34">P83/$E83</f>
         <v>1.1208628211872043</v>
       </c>
       <c r="S83">
@@ -7956,7 +11924,7 @@
         <v>1.00426631737384</v>
       </c>
       <c r="V83">
-        <f t="shared" ref="V83:V99" si="31">T83/$E83</f>
+        <f t="shared" ref="V83:V99" si="35">T83/$E83</f>
         <v>13.694371001838917</v>
       </c>
     </row>
@@ -8001,7 +11969,7 @@
         <v>87.391674778829099</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:N99" si="32">L84/E84</f>
+        <f t="shared" ref="N84:N99" si="36">L84/E84</f>
         <v>5.8363742429870059E-2</v>
       </c>
       <c r="O84">
@@ -8014,7 +11982,7 @@
         <v>8.2086911198972103</v>
       </c>
       <c r="R84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.2665769505528712</v>
       </c>
       <c r="S84">
@@ -8027,7 +11995,7 @@
         <v>0.62923825053175897</v>
       </c>
       <c r="V84">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.038980348186918</v>
       </c>
     </row>
@@ -8072,7 +12040,7 @@
         <v>122.98479357681499</v>
       </c>
       <c r="N85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.7197001306645477E-2</v>
       </c>
       <c r="O85">
@@ -8085,7 +12053,7 @@
         <v>11.6284948155586</v>
       </c>
       <c r="R85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.1893674527047176</v>
       </c>
       <c r="S85">
@@ -8098,7 +12066,7 @@
         <v>0.86955128814315896</v>
       </c>
       <c r="V85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15.176082949343527</v>
       </c>
     </row>
@@ -8143,7 +12111,7 @@
         <v>14.694987342822399</v>
       </c>
       <c r="N86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9954670184479195E-2</v>
       </c>
       <c r="O86">
@@ -8156,7 +12124,7 @@
         <v>1.39518584161927</v>
       </c>
       <c r="R86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.0921051570028963</v>
       </c>
       <c r="S86">
@@ -8169,7 +12137,7 @@
         <v>0.10722615274698299</v>
       </c>
       <c r="V86">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>14.06274563735667</v>
       </c>
     </row>
@@ -8214,7 +12182,7 @@
         <v>159.53170914966199</v>
       </c>
       <c r="N87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.394836380453058E-2</v>
       </c>
       <c r="O87">
@@ -8227,7 +12195,7 @@
         <v>15.0531709149662</v>
       </c>
       <c r="R87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.1685471201705526</v>
       </c>
       <c r="S87">
@@ -8240,7 +12208,7 @@
         <v>1.0836559498779601</v>
       </c>
       <c r="V87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15.636824165941382</v>
       </c>
     </row>
@@ -8285,7 +12253,7 @@
         <v>178.94332343437699</v>
       </c>
       <c r="N88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.7648664594074866E-2</v>
       </c>
       <c r="O88">
@@ -8298,7 +12266,7 @@
         <v>17.051878387366099</v>
       </c>
       <c r="R88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.59413531631394556</v>
       </c>
       <c r="S88">
@@ -8311,33 +12279,45 @@
         <v>1.2933877191646499</v>
       </c>
       <c r="V88">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.3281429567245704</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f>AVERAGE(E79:E88)</f>
+        <v>42.342856573580377</v>
+      </c>
+      <c r="F89">
+        <f>AVERAGE(F79:F88)</f>
+        <v>6430.8</v>
+      </c>
+      <c r="G89">
+        <f>AVERAGE(G79:G88)</f>
+        <v>1085.4000000000001</v>
+      </c>
       <c r="M89">
-        <f t="shared" ref="M89:N89" si="33">AVERAGE(M79:M88)</f>
+        <f t="shared" ref="M89:N89" si="37">AVERAGE(M79:M88)</f>
         <v>120.50900577816719</v>
       </c>
       <c r="N89">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.2763895926878933E-2</v>
       </c>
       <c r="Q89">
-        <f t="shared" ref="Q89:R89" si="34">AVERAGE(Q79:Q88)</f>
+        <f t="shared" ref="Q89:R89" si="38">AVERAGE(Q79:Q88)</f>
         <v>11.410848629238792</v>
       </c>
       <c r="R89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.119334198301098</v>
       </c>
       <c r="U89">
-        <f t="shared" ref="U89:V89" si="35">AVERAGE(U79:U88)</f>
+        <f t="shared" ref="U89:V89" si="39">AVERAGE(U79:U88)</f>
         <v>0.84826548646426103</v>
       </c>
       <c r="V89">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>14.151523773462714</v>
       </c>
     </row>
@@ -8382,7 +12362,7 @@
         <v>98.378436721401698</v>
       </c>
       <c r="N90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.559520153889586E-2</v>
       </c>
       <c r="O90">
@@ -8395,7 +12375,7 @@
         <v>9.1863971721780793</v>
       </c>
       <c r="R90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.98092415384277243</v>
       </c>
       <c r="S90">
@@ -8408,7 +12388,7 @@
         <v>0.68098746759805096</v>
       </c>
       <c r="V90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>12.945787805829463</v>
       </c>
     </row>
@@ -8453,7 +12433,7 @@
         <v>36.776561474728503</v>
       </c>
       <c r="N91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.1065673223275966E-2</v>
       </c>
       <c r="O91">
@@ -8466,7 +12446,7 @@
         <v>3.47185947928048</v>
       </c>
       <c r="R91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.0958839054968115</v>
       </c>
       <c r="S91">
@@ -8479,7 +12459,7 @@
         <v>0.26511328048682598</v>
       </c>
       <c r="V91">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>13.834019061510226</v>
       </c>
     </row>
@@ -8524,7 +12504,7 @@
         <v>8.9915344921684905</v>
       </c>
       <c r="N92">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.2703832035439416E-2</v>
       </c>
       <c r="O92">
@@ -8537,7 +12517,7 @@
         <v>0.83346734176169801</v>
       </c>
       <c r="R92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.4113239239185789</v>
       </c>
       <c r="S92">
@@ -8550,7 +12530,7 @@
         <v>5.98966395567525E-2</v>
       </c>
       <c r="V92">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>23.340380644097966</v>
       </c>
     </row>
@@ -8595,7 +12575,7 @@
         <v>109.406567439349</v>
       </c>
       <c r="N93">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.493664640513143E-2</v>
       </c>
       <c r="O93">
@@ -8608,7 +12588,7 @@
         <v>10.348727586145101</v>
       </c>
       <c r="R93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.80946812526172662</v>
       </c>
       <c r="S93">
@@ -8621,7 +12601,7 @@
         <v>0.77857450773598602</v>
       </c>
       <c r="V93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10.056857413206037</v>
       </c>
     </row>
@@ -8666,7 +12646,7 @@
         <v>130.09357136098001</v>
       </c>
       <c r="N94">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.1467735403776608E-2</v>
       </c>
       <c r="O94">
@@ -8679,7 +12659,7 @@
         <v>12.32015376285</v>
       </c>
       <c r="R94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.49661562869380488</v>
       </c>
       <c r="S94">
@@ -8692,7 +12672,7 @@
         <v>0.91404660233091395</v>
       </c>
       <c r="V94">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.2881641097474903</v>
       </c>
     </row>
@@ -8737,7 +12717,7 @@
         <v>129.32728851665399</v>
       </c>
       <c r="N95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.5373003094801174E-2</v>
       </c>
       <c r="O95">
@@ -8750,7 +12730,7 @@
         <v>12.206054943321099</v>
       </c>
       <c r="R95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.85833139400037539</v>
       </c>
       <c r="S95">
@@ -8763,7 +12743,7 @@
         <v>0.917955670935653</v>
       </c>
       <c r="V95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10.723917554804116</v>
       </c>
     </row>
@@ -8808,7 +12788,7 @@
         <v>145.925771322153</v>
       </c>
       <c r="N96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.4718427529085551E-2</v>
       </c>
       <c r="O96">
@@ -8821,7 +12801,7 @@
         <v>13.763599198528899</v>
       </c>
       <c r="R96">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.0373234650545935</v>
       </c>
       <c r="S96">
@@ -8834,7 +12814,7 @@
         <v>0.99274540185107996</v>
       </c>
       <c r="V96">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>13.377068688392463</v>
       </c>
     </row>
@@ -8879,7 +12859,7 @@
         <v>44.955589339757204</v>
       </c>
       <c r="N97">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.2054033211555911E-2</v>
       </c>
       <c r="O97">
@@ -8892,7 +12872,7 @@
         <v>4.2507357224070397</v>
       </c>
       <c r="R97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.2505107405012392</v>
       </c>
       <c r="S97">
@@ -8905,7 +12885,7 @@
         <v>0.30732347954519401</v>
       </c>
       <c r="V97">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.664155380392188</v>
       </c>
     </row>
@@ -8950,7 +12930,7 @@
         <v>117.631611605066</v>
       </c>
       <c r="N98">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.207032464346646E-2</v>
       </c>
       <c r="O98">
@@ -8963,7 +12943,7 @@
         <v>11.0843259231807</v>
       </c>
       <c r="R98">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.0208000389470331</v>
       </c>
       <c r="S98">
@@ -8976,7 +12956,7 @@
         <v>0.83160613180702703</v>
       </c>
       <c r="V98">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>12.886559098643094</v>
       </c>
     </row>
@@ -9021,7 +13001,7 @@
         <v>175.55111278518299</v>
       </c>
       <c r="N99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.9540436846828127E-2</v>
       </c>
       <c r="O99">
@@ -9034,7 +13014,7 @@
         <v>16.6879159432394</v>
       </c>
       <c r="R99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.96307804258912566</v>
       </c>
       <c r="S99">
@@ -9047,33 +13027,45 @@
         <v>1.25988787300706</v>
       </c>
       <c r="V99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>12.084334245068227</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f>AVERAGE(E90:E99)</f>
+        <v>93.481225154590987</v>
+      </c>
+      <c r="F100">
+        <f>AVERAGE(F90:F99)</f>
+        <v>9477.4</v>
+      </c>
+      <c r="G100">
+        <f>AVERAGE(G90:G99)</f>
+        <v>1365.2</v>
+      </c>
       <c r="M100">
-        <f t="shared" ref="M100:N100" si="36">AVERAGE(M90:M99)</f>
+        <f t="shared" ref="M100:N100" si="40">AVERAGE(M90:M99)</f>
         <v>99.703804505744102</v>
       </c>
       <c r="N100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.2952531393225649E-2</v>
       </c>
       <c r="Q100">
-        <f t="shared" ref="Q100:R100" si="37">AVERAGE(Q90:Q99)</f>
+        <f t="shared" ref="Q100:R100" si="41">AVERAGE(Q90:Q99)</f>
         <v>9.4153237072892502</v>
       </c>
       <c r="R100">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.99242594183060606</v>
       </c>
       <c r="U100">
-        <f t="shared" ref="U100:V100" si="38">AVERAGE(U90:U99)</f>
+        <f t="shared" ref="U100:V100" si="42">AVERAGE(U90:U99)</f>
         <v>0.70081370548545441</v>
       </c>
       <c r="V100">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13.220124400169126</v>
       </c>
     </row>
@@ -9082,8 +13074,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV91"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
